--- a/document/ProjectUsing/workDoc/新人工作.xlsx
+++ b/document/ProjectUsing/workDoc/新人工作.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Macro\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SecretPlace\document\ProjectUsing\workDoc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8868" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8868" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -239,33 +239,6 @@
   </si>
   <si>
     <t>列表</t>
-  </si>
-  <si>
-    <r>
-      <t>可加功能</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>擴增類別</t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -433,6 +406,33 @@
   </si>
   <si>
     <t>狀態</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>可加功能</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>為了避免異動價格時, 使用者並不清楚, 可以擴增日記內容查詢</t>
+    </r>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -602,6 +602,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -609,10 +613,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -894,10 +894,10 @@
       <c r="C3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="26"/>
+      <c r="E3" s="30"/>
       <c r="F3" s="12"/>
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
@@ -910,10 +910,10 @@
       <c r="K3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="25" t="s">
+      <c r="L3" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="26"/>
+      <c r="M3" s="30"/>
       <c r="N3" s="4"/>
       <c r="O3" s="13" t="s">
         <v>9</v>
@@ -928,10 +928,10 @@
       <c r="C4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="26"/>
+      <c r="E4" s="30"/>
       <c r="F4" s="12"/>
       <c r="G4" s="12"/>
       <c r="H4" s="12"/>
@@ -940,10 +940,10 @@
       <c r="K4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="25" t="s">
+      <c r="L4" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="26"/>
+      <c r="M4" s="30"/>
       <c r="N4" s="4"/>
       <c r="O4" s="5"/>
       <c r="P4" s="2"/>
@@ -954,10 +954,10 @@
       <c r="C5" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="26"/>
+      <c r="E5" s="30"/>
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
@@ -966,10 +966,10 @@
       <c r="K5" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="L5" s="27" t="s">
+      <c r="L5" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="M5" s="26"/>
+      <c r="M5" s="30"/>
       <c r="N5" s="4"/>
       <c r="O5" s="5"/>
       <c r="P5" s="2"/>
@@ -980,10 +980,10 @@
       <c r="C6" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="25" t="s">
+      <c r="D6" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="26"/>
+      <c r="E6" s="30"/>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
       <c r="H6" s="12"/>
@@ -1006,10 +1006,10 @@
       <c r="C7" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="25" t="s">
+      <c r="D7" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="26"/>
+      <c r="E7" s="30"/>
       <c r="F7" s="12"/>
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
@@ -1346,10 +1346,10 @@
       <c r="C22" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D22" s="25" t="s">
+      <c r="D22" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="E22" s="26"/>
+      <c r="E22" s="30"/>
       <c r="F22" s="12"/>
       <c r="G22" s="12"/>
       <c r="H22" s="12"/>
@@ -1806,10 +1806,10 @@
       <c r="C43" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D43" s="25" t="s">
+      <c r="D43" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="E43" s="26"/>
+      <c r="E43" s="30"/>
       <c r="F43" s="12"/>
       <c r="G43" s="12"/>
       <c r="H43" s="12"/>
@@ -1991,10 +1991,10 @@
       <c r="D52" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="E52" s="25" t="s">
+      <c r="E52" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="F52" s="26"/>
+      <c r="F52" s="30"/>
       <c r="G52" s="12"/>
       <c r="H52" s="12"/>
       <c r="I52" s="15"/>
@@ -2148,17 +2148,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="L5:M5"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="D43:E43"/>
     <mergeCell ref="E52:F52"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="D6:E6"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="L5:M5"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2172,8 +2172,8 @@
   </sheetPr>
   <dimension ref="A1:L59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -2194,7 +2194,7 @@
       <c r="B2" s="2"/>
       <c r="C2" s="6"/>
       <c r="D2" s="4"/>
-      <c r="F2" s="28"/>
+      <c r="F2" s="25"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" s="8" t="s">
@@ -2209,8 +2209,8 @@
       <c r="D3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="29" t="s">
-        <v>82</v>
+      <c r="F3" s="26" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1">
@@ -2264,8 +2264,8 @@
       <c r="D8" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="29" t="s">
-        <v>74</v>
+      <c r="F8" s="26" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.75" customHeight="1">
@@ -2279,7 +2279,7 @@
       <c r="D9" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="F9" s="30"/>
+      <c r="F9" s="27"/>
     </row>
     <row r="10" spans="1:6" ht="15.75" customHeight="1">
       <c r="A10" s="15"/>
@@ -2288,8 +2288,8 @@
         <v>14</v>
       </c>
       <c r="D10" s="4"/>
-      <c r="F10" s="29" t="s">
-        <v>83</v>
+      <c r="F10" s="26" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" customHeight="1">
@@ -2299,7 +2299,7 @@
       </c>
       <c r="C11" s="18"/>
       <c r="D11" s="19"/>
-      <c r="F11" s="30"/>
+      <c r="F11" s="27"/>
     </row>
     <row r="12" spans="1:6" ht="15.75" customHeight="1">
       <c r="A12" s="15"/>
@@ -2310,7 +2310,7 @@
         <v>72</v>
       </c>
       <c r="D12" s="19"/>
-      <c r="F12" s="30"/>
+      <c r="F12" s="27"/>
     </row>
     <row r="13" spans="1:6" ht="15.75" customHeight="1">
       <c r="A13" s="15"/>
@@ -2319,15 +2319,15 @@
         <v>25</v>
       </c>
       <c r="D13" s="19"/>
-      <c r="F13" s="30"/>
+      <c r="F13" s="27"/>
     </row>
     <row r="14" spans="1:6" ht="15.75" customHeight="1">
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
       <c r="C14" s="18"/>
       <c r="D14" s="19"/>
-      <c r="F14" s="29" t="s">
-        <v>84</v>
+      <c r="F14" s="26" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.75" customHeight="1">
@@ -2335,7 +2335,7 @@
       <c r="B15" s="16"/>
       <c r="C15" s="18"/>
       <c r="D15" s="19"/>
-      <c r="F15" s="30"/>
+      <c r="F15" s="27"/>
     </row>
     <row r="16" spans="1:6" ht="15.75" customHeight="1">
       <c r="A16" s="8" t="s">
@@ -2346,7 +2346,7 @@
       </c>
       <c r="C16" s="18"/>
       <c r="D16" s="12"/>
-      <c r="F16" s="29"/>
+      <c r="F16" s="26"/>
     </row>
     <row r="17" spans="1:12" ht="15.75" customHeight="1">
       <c r="A17" s="15"/>
@@ -2355,7 +2355,7 @@
       </c>
       <c r="C17" s="18"/>
       <c r="D17" s="12"/>
-      <c r="F17" s="30"/>
+      <c r="F17" s="27"/>
     </row>
     <row r="18" spans="1:12" ht="15.75" customHeight="1">
       <c r="A18" s="15"/>
@@ -2366,7 +2366,7 @@
         <v>72</v>
       </c>
       <c r="D18" s="19"/>
-      <c r="F18" s="30"/>
+      <c r="F18" s="27"/>
     </row>
     <row r="19" spans="1:12" ht="15.75" customHeight="1">
       <c r="A19" s="15"/>
@@ -2375,18 +2375,18 @@
         <v>25</v>
       </c>
       <c r="D19" s="19"/>
-      <c r="F19" s="30"/>
+      <c r="F19" s="27"/>
     </row>
     <row r="20" spans="1:12" ht="15.75" customHeight="1">
       <c r="A20" s="15"/>
       <c r="B20" s="16"/>
       <c r="C20" s="18"/>
       <c r="D20" s="19"/>
-      <c r="F20" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="L20" s="29" t="s">
-        <v>80</v>
+      <c r="F20" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="L20" s="26" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="15.75" customHeight="1">
@@ -2502,8 +2502,8 @@
       <c r="B34" s="16"/>
       <c r="C34" s="18"/>
       <c r="D34" s="4"/>
-      <c r="F34" s="29" t="s">
-        <v>73</v>
+      <c r="F34" s="26" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="15.6">
@@ -2567,8 +2567,8 @@
         <v>57</v>
       </c>
       <c r="D41" s="4"/>
-      <c r="F41" s="28" t="s">
-        <v>87</v>
+      <c r="F41" s="25" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="15.6">
@@ -2611,16 +2611,16 @@
     </row>
     <row r="48" spans="1:7" ht="15.6">
       <c r="A48" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B48" s="16"/>
       <c r="C48" s="18"/>
       <c r="D48" s="4"/>
-      <c r="F48" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="G48" s="29" t="s">
-        <v>81</v>
+      <c r="F48" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="G48" s="26" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="15.6">
@@ -2631,15 +2631,15 @@
     </row>
     <row r="50" spans="1:6" ht="15.6">
       <c r="A50" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="B50" s="16" t="s">
         <v>77</v>
-      </c>
-      <c r="B50" s="16" t="s">
-        <v>78</v>
       </c>
       <c r="C50" s="18"/>
       <c r="D50" s="4"/>
-      <c r="F50" s="29" t="s">
-        <v>81</v>
+      <c r="F50" s="26" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="15.6">
@@ -2662,13 +2662,13 @@
     </row>
     <row r="54" spans="1:6" ht="15.6">
       <c r="A54" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" s="6"/>
       <c r="D54" s="4"/>
-      <c r="F54" s="29" t="s">
-        <v>86</v>
+      <c r="F54" s="26" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="15.6">
